--- a/Test_data/box_set_03.xlsx
+++ b/Test_data/box_set_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\First-AP\Desktop\Homework\4th Year\2nd term\Container_loding\project\Test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6871FF3F-F5B2-459F-B23C-FE3845754106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73AA6DD-60A2-4DB1-A11D-178A33B95562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F278F22-566D-45EB-B0E9-07BA93203C9F}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6" x14ac:dyDescent="0.3"/>
@@ -470,11 +470,11 @@
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:E4" ca="1" si="0">INT(RAND()*100)</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
@@ -492,11 +492,11 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2">
         <v>6</v>
@@ -511,18 +511,18 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4" ca="1" si="1">INT(RAND()*100)</f>
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
